--- a/Output_testing/R1_201907/Country/HKD/MN/ARGENTINA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARGENTINA_201907_HKD_MN.xlsx
@@ -692,8 +692,10 @@
       <c r="G11" s="8" t="n">
         <v>2691.935506</v>
       </c>
-      <c r="H11" s="9" t="n">
-        <v>0.02350038971696833</v>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="I11" s="9" t="n">
         <v>-15.61107284243277</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ARGENTINA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARGENTINA_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3054.784558</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>61.25860462095595</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2677.991378</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>53.41742071200486</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2006.86135</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>53.10688334918888</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>771.497805</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>48.27626166899071</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-45.36649662941802</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>372.84135</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.476710848946701</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>672.091365</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>13.40608767303904</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>520.130685</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.7640398598681</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>265.191721</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>16.59429856115531</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-12.62426184882804</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>209.078397</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.192718214141982</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>191.243475</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.81469979568425</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>198.068048</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.241406796905798</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>81.475419</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.098301799101888</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-38.04471400446432</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>16.989163</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.3406893020761347</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>32.124164</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.6407750217220607</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>61.736661</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.633716078141332</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>57.279965</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.584277960104669</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>19.30582753294832</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>91.23764199999999</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.829618597222961</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>62.731285</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.251289854843469</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>57.088286</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.510707725377806</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>47.731889</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.986809746424644</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>22.77821573143661</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>70.188542</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.407514036313706</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>118.320383</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.36011576789944</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>119.388905</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.159347630578661</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>39.835075</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.492668795478777</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-4.259176398776566</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>81.337261</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.631082984068986</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>71.840971</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.432999151450569</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>70.548497</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.866900670860796</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>37.209886</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.32839832021209</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-14.83045119399101</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>100.34767</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.012305000385616</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>95.157156</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.898082972771198</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>89.444318</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.366934298811303</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>28.229235</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.766436568896565</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-57.19736683437475</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>51.780991</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.038381330769539</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>85.840075</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.712236804753839</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>44.215346</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.170055530874629</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>26.592448</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.664015075282073</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-14.30931123595716</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>40.595181</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8140685849293674</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>66.350835</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.323488378978574</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>43.401078</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.148507836166683</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>24.906567</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.558521538202236</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-29.05380508032239</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>897.522055</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.99830648018906</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>939.638539</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>18.7428038668527</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>568.026872</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>15.03150022322601</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>218.139358</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>13.65000996615103</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-38.13609179301489</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,551 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.752061</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>15.89392594834344</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.850624</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>36.81453560495925</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.521478</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>36.66222576869132</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>67.40876314643607</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>52.28182742111256</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.696752</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>14.72503519310293</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.9120780000000001</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>18.14400332293325</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>28.80647644625049</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>31.87630199628891</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-53.73581679773645</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.164346982755432</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.4128999197116941</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.09638740566021155</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.6954218513145081</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.516976</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>32.05950608981749</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.813551</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>16.18400185880557</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.1425774315674026</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>10.32710723789143</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>6.107521080653542</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>19.30433743325471</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>0.591681</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>12.50448301273672</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.532233</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>10.58773188321035</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>14.98799551457587</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.620124</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>13.10559241177315</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>0.5752890000000001</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>11.44424657501546</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.2585100431997238</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2164526408934029</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1846,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3054.784558</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>61.31678650524253</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2677.991378</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>53.47103631619879</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>2006.86135</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>53.12688035276683</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>771.497805</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>48.29298730290624</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-45.36649662941802</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>372.84135</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.483812041148993</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>672.091365</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>13.41954349851481</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>520.130685</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.7692226071311</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>265.191721</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>16.60004776693934</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-12.62426184882804</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>209.068155</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.196494771327815</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>191.243475</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.818528648362608</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>198.068048</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.243380409813601</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>81.475419</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.100068139877553</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-38.04471400446432</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>16.989163</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3410128802195436</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>32.124164</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.6414181740773051</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>61.736661</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.634331241830097</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>57.279965</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.585519757189606</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>19.30582753294832</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>91.23764199999999</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.831356323019539</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>62.731285</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.252545787097309</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>57.088286</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.511276571182425</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>47.731889</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.987844546648749</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>22.77821573143661</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>70.188542</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.40885085779861</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>118.320383</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.362484639911171</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>119.388905</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.160537259528589</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>39.835075</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.493532397263681</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-4.259176398776566</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>81.337261</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.632632145726</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>71.840971</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.434437467159009</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>70.548497</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.867603638480819</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>37.209886</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.329205009391554</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-14.83045119399101</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>100.34767</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.014216237140128</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>95.157156</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.899988097804172</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>89.444318</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.367825550390329</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>28.229235</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.76704856266669</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-57.19736683437475</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>51.780991</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.039367559280717</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>85.840075</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.713955394112635</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>44.215346</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.17049610661852</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>26.592448</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.66459158444034</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-14.30931123595716</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>40.595181</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8148417668276944</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>66.350835</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.32481677761963</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>43.401078</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.148940298285729</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>24.906567</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.559061498418629</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-29.05380508032239</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>892.8005460000001</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.92062891226843</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>934.611655</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>18.66124519914256</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>566.6044869999999</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>14.99950596397196</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>217.585881</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.62009343425762</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-38.09746162924454</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2304,443 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>639.370048</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>34.46658344665068</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>794.652783</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>43.42307217332922</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>888.345173</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>44.50353021193233</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>482.71446</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>44.1300145633462</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-15.21719698808516</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>771.863997</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>41.60894765915877</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>715.069017</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>39.07429030435117</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>739.211334</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>37.03235514251148</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>415.432627</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>37.97907334203158</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-7.297962841041894</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>79.330354</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.276469119168589</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>88.74303999999999</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.849281992385146</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>82.853628</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.1507277226644</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>33.811152</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.091033631276577</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-39.66495113491517</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>11.411267</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.6151482815277439</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>18.607237</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.016775392325332</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>32.010349</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.603626132176887</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>33.737929</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.084339545384947</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>86.54280842453379</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>101.810554</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.488311449945705</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>45.88262</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.507213669144651</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>69.018179</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.457611644273609</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>30.7503</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.811208901484461</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>0.1429930289432946</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>34.974712</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.885385206018557</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>6.992551</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.3821015332034461</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>19.142154</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.9589666885716971</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>23.844051</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.179835917654444</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>26.37536264468023</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>15.286132</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.8240310064610928</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>23.86934</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.30431818238499</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>22.132788</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.108788823724822</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>11.356282</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.038197384941537</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>66.84292281678982</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>14.556064</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.7846751596827819</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>39.498148</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.15834005493798</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>10.846643</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.5433855207637226</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>9.016075000000001</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.8242544071586785</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>25.0174885754018</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>11.797959</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6359937248322014</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>9.037241</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.4938317420965602</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5.951295</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.2981427094810384</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>7.884587</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.7208131679667731</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>118.1732477639875</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>10.57886</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.5299703650416553</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>7.68504</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.7025704743129056</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>174.642216</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>9.414454946553882</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>87.672347</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.790774955841516</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>116.032531</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.812895038858363</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>37.613635</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.43865866444189</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-41.48821428134194</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
